--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,15 +26,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,20 +78,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +478,225 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>договор</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>договор</t>
+          <t>номенклатура</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>номенклатура</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>ЕИ</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>июнь1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>июнь2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>июль1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>июль2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>август1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>август2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>сентябрь1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>сентябрь2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>№19856 от 23.05.2023</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Оболочка 9.10 миллиметров</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>ШТ</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="E2" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="G2" t="n">
+      <c r="F2" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="G2" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="K2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="6" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>№19856 от 23.05.2023</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Пруток 6 миллиметров</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>ШТ</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E3" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" s="5" t="n">
         <v>7500</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="G3" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H3" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="J3" t="n">
+      <c r="I3" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="K3" t="n">
+      <c r="J3" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="L3" t="n">
+      <c r="K3" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>№2648 от 02.04.2023</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Заготовка 249 миллиметров</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>КГ</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" s="5" t="n">
         <v>20000</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="E4" s="6" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>9050</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="G4" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I4" s="6" t="n">
         <v>3200</v>
       </c>
-      <c r="K4" t="n">
+      <c r="J4" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" s="6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>№19856 от 23.05.2023</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Проволока ВТ</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>М</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="E5" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="G5" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="I5" s="6" t="n">
+        <v/>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,24 +26,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <color rgb="FF000000"/>
+      <sz val="8"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <color rgb="FF201F35"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <color rgb="FFFF4500"/>
+      <sz val="8"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,24 +50,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF5F5F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,31 +79,60 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA9A9A9"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA9A9A9"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA9A9A9"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA9A9A9"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -469,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,221 +509,1172 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>договор</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>номенклатура</t>
+          <t>Стадия готовности</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Вид продукции</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Цех исполнитель</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Заказчик</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Договор</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование ОЗМ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Сплав</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ЕИ</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>июнь1</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>июнь2</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>июль1</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>июль2</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>август1</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>август2</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>сентябрь1</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>сентябрь2</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Склад факт</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Недогруз/Перегруз</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>План производства</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Факт производства цеха</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. потребность</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. отгрузка</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Прогнозный склад на 01.11.2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток по спецификации на 01.11.2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>План производства.1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Прогноз/Запуск/Приход</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Факт производства цеха.1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. потребность.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. отгрузка.1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Прогнозный склад на 01.12.2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток по спецификации на 01.12.2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>План производства.2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Прогноз/Запуск/Приход.1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Факт производства цеха.2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. потребность.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. отгрузка.2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Прогнозный склад на 01.01.2024</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток по спецификации на 01.01.2024</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>План производства.3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Прогноз/Запуск/Приход.2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Факт производства цеха.3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. потребность.3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. отгрузка.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Прогнозный склад на 01.02.2024</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток по спецификации на 01.02.2024</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>План производства.4</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Прогноз/Запуск/Приход.3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Факт производства цеха.4</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. потребность.4</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. отгрузка.4</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Прогнозный склад на 01.03.2024</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток по спецификации на 01.03.2024</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>План производства.5</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Прогноз/Запуск/Приход.4</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Факт производства цеха.5</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. потребность.5</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Сум. мес. отгрузка.5</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>Синоним</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>Комментарий</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>№19856 от 23.05.2023</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Оболочка 9.10 миллиметров</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>ШТ</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>500</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>259</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>3500</v>
+      <c r="A2" s="3" t="n">
+        <v>3189</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>ГП</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Hf</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Цех 60</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>фирма технология</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>программа выпуска ОПД (2023)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Гафний йодидный</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v/>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Гафний</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>КГ</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>330.4</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>330.4</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>469.6</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>270</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v/>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v/>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>400.4</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>400.4</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AL2" s="5" t="n">
+        <v>400.4</v>
+      </c>
+      <c r="AM2" s="5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AN2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AP2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AS2" s="5" t="n">
+        <v>400.4</v>
+      </c>
+      <c r="AT2" s="5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AU2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AZ2" s="7" t="inlineStr">
+        <is>
+          <t>гафний йодидный</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>это комментарий</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>№19856 от 23.05.2023</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Пруток 6 миллиметров</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>ШТ</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>350</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>800</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>400</v>
+      <c r="A3" s="3" t="n">
+        <v>3816</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>ГП</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Hf</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Цех 87</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>фирма технология</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>программа выпуска ОПД (2023)</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Проволока Hf сорт R3  Ø2,0±0,05 мм</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>ASTM B737-10</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Hf R3</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>КГ</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AL3" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AM3" s="5" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AN3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AP3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AS3" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AT3" s="5" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AU3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AZ3" s="7" t="inlineStr">
+        <is>
+          <t>проволока гафниевая</t>
+        </is>
+      </c>
+      <c r="BA3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>№2648 от 02.04.2023</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Заготовка 249 миллиметров</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>4980</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>ГП</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Hf</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Цех 60</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>фирма технология</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>№ 465/260-Д/19/28359-Д от 28.03.2023 (2023)</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Таблетки из порошка гафния х/с (договор)</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>ТУ 402-2010</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Гафний</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>КГ</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v/>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>9050</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="5" t="n">
+        <v>805.54</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-3177.26</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>305.54</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>5885.83</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v/>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v/>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>-194.46</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>4885.83</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>-694.46</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>3885.83</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AL4" s="5" t="n">
+        <v>-194.46</v>
+      </c>
+      <c r="AM4" s="5" t="n">
+        <v>3385.83</v>
+      </c>
+      <c r="AN4" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AP4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AS4" s="5" t="n">
+        <v>305.54</v>
+      </c>
+      <c r="AT4" s="5" t="n">
+        <v>2885.83</v>
+      </c>
+      <c r="AU4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AZ4" s="7" t="inlineStr">
+        <is>
+          <t>таблетки из порошка гафния</t>
+        </is>
+      </c>
+      <c r="BA4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>№19856 от 23.05.2023</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Проволока ВТ</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v/>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="6" t="n">
+      <c r="A5" s="3" t="n">
+        <v>5014</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>ГП</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>IZr</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Цех 60</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>фирма технология</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>№ 465/281-Д-кт/19/28097-Д-кт от 06.04.2023 (2023)</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Цирконий йодидный (договор)</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>ТУ 95 46-97</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Цирконий йодидный</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>КГ</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>23090</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-14880</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>7700</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>7700</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>23090</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>33540</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>7700</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v/>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>6700</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v/>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>24090</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>25840</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>8200</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>8200</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>24090</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>17640</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AL5" s="5" t="n">
+        <v>24090</v>
+      </c>
+      <c r="AM5" s="5" t="n">
+        <v>17640</v>
+      </c>
+      <c r="AN5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AP5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AS5" s="5" t="n">
+        <v>24090</v>
+      </c>
+      <c r="AT5" s="5" t="n">
+        <v>17640</v>
+      </c>
+      <c r="AU5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AZ5" s="7" t="inlineStr">
+        <is>
+          <t>цирконий йодидный</t>
+        </is>
+      </c>
+      <c r="BA5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>5149</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>ГП</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Hf</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Цех 54</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>фирма технология</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>19/28654-Д-кт (2023)</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Оксид гафния ИТТ 19-407/272</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>НД ПРОИЗВОДИТЕЛЯ</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>HfO2</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>КГ</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v/>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v/>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AL6" s="5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="AM6" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AP6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AS6" s="5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="AT6" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AU6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="5" t="n">
+        <v/>
+      </c>
+      <c r="AZ6" s="7" t="inlineStr">
+        <is>
+          <t>оксид гафния</t>
+        </is>
+      </c>
+      <c r="BA6" t="n">
         <v/>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -948,9 +948,9 @@
           <t>гафний йодидный</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>это комментарий</t>
+      <c r="BA2" s="7" t="inlineStr">
+        <is>
+          <t>это второй комментарий</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
           <t>проволока гафниевая</t>
         </is>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3" s="7" t="n">
         <v/>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
           <t>таблетки из порошка гафния</t>
         </is>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4" s="7" t="n">
         <v/>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
           <t>цирконий йодидный</t>
         </is>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5" s="7" t="n">
         <v/>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
           <t>оксид гафния</t>
         </is>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6" s="7" t="n">
         <v/>
       </c>
     </row>
